--- a/KymdanMM/App_Data/import.xlsx
+++ b/KymdanMM/App_Data/import.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Ko co gi</t>
+  </si>
+  <si>
+    <t>Cai</t>
+  </si>
   <si>
     <t>Tên vật tư</t>
   </si>
@@ -53,62 +62,26 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Cây lau nhà Master Mop</t>
-  </si>
-  <si>
-    <t>Cây lau bụi Dust Mop 60cm</t>
-  </si>
-  <si>
-    <t>Cây lau bụi Homeinno 80cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dạng muose khía 
-(theo mẫu TGĐ đã chọn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-theo mẫu TGĐ đã chọn</t>
-  </si>
-  <si>
-    <t>cây</t>
-  </si>
-  <si>
-    <t>04/08/2014</t>
-  </si>
-  <si>
-    <t>Lau ướt sàn nhà</t>
-  </si>
-  <si>
-    <t>Lau khô lại sàn nhà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lau </t>
+    <t>21/12/2014</t>
+  </si>
+  <si>
+    <t>Chuan bi cho abc</t>
+  </si>
+  <si>
+    <t>Khong co ghi chu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,22 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,216 +387,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KymdanMM/App_Data/import.xlsx
+++ b/KymdanMM/App_Data/import.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Troy Lee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Ko co gi</t>
-  </si>
-  <si>
-    <t>Cai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Tên vật tư</t>
   </si>
@@ -62,26 +53,62 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>21/12/2014</t>
-  </si>
-  <si>
-    <t>Chuan bi cho abc</t>
-  </si>
-  <si>
-    <t>Khong co ghi chu</t>
+    <t>Cây lau nhà Master Mop</t>
+  </si>
+  <si>
+    <t>Cây lau bụi Dust Mop 60cm</t>
+  </si>
+  <si>
+    <t>Cây lau bụi Homeinno 80cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dạng muose khía 
+(theo mẫu TGĐ đã chọn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+theo mẫu TGĐ đã chọn</t>
+  </si>
+  <si>
+    <t>cây</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Lau ướt sàn nhà</t>
+  </si>
+  <si>
+    <t>Lau khô lại sàn nhà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lau </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +131,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,71 +427,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KymdanMM/App_Data/import.xlsx
+++ b/KymdanMM/App_Data/import.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10848"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Ko co gi</t>
+  </si>
+  <si>
+    <t>Cai</t>
+  </si>
   <si>
     <t>Tên vật tư</t>
   </si>
@@ -53,62 +57,26 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Cây lau nhà Master Mop</t>
-  </si>
-  <si>
-    <t>Cây lau bụi Dust Mop 60cm</t>
-  </si>
-  <si>
-    <t>Cây lau bụi Homeinno 80cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dạng muose khía 
-(theo mẫu TGĐ đã chọn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-theo mẫu TGĐ đã chọn</t>
-  </si>
-  <si>
-    <t>cây</t>
-  </si>
-  <si>
-    <t>04/08/2014</t>
-  </si>
-  <si>
-    <t>Lau ướt sàn nhà</t>
-  </si>
-  <si>
-    <t>Lau khô lại sàn nhà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lau </t>
+    <t>Chuan bi cho abc</t>
+  </si>
+  <si>
+    <t>Khong co ghi chu</t>
+  </si>
+  <si>
+    <t>15/08/2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,22 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,224 +375,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KymdanMM/App_Data/import.xlsx
+++ b/KymdanMM/App_Data/import.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Ko co gi</t>
-  </si>
-  <si>
-    <t>Cai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Tên vật tư</t>
   </si>
@@ -57,26 +48,59 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Chuan bi cho abc</t>
-  </si>
-  <si>
-    <t>Khong co ghi chu</t>
-  </si>
-  <si>
-    <t>15/08/2014</t>
+    <t>Cây lau nhà Master Mop</t>
+  </si>
+  <si>
+    <t>Cây lau bụi Dust Mop 60cm</t>
+  </si>
+  <si>
+    <t>Cây lau bụi Homeinno 80cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dạng muose khía 
+(theo mẫu TGĐ đã chọn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+theo mẫu TGĐ đã chọn</t>
+  </si>
+  <si>
+    <t>cây</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Lau ướt sàn nhà</t>
+  </si>
+  <si>
+    <t>Lau khô lại sàn nhà</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +123,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,82 +410,235 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
